--- a/Vorgangsliste.xlsx
+++ b/Vorgangsliste.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\07_Arbeitspaketbeschriebe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9905C52B-8898-4CB9-A8C7-A9C29C842756}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F9691-10ED-48A6-B078-62CF276D0BC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2250" yWindow="140" windowWidth="9240" windowHeight="8400" xr2:uid="{CD8BF150-BA51-4EA0-B710-0A49CE945C4A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CD8BF150-BA51-4EA0-B710-0A49CE945C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="192">
   <si>
     <t>PSP-CODE</t>
   </si>
@@ -520,6 +521,93 @@
   </si>
   <si>
     <t>53,54</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>4,5,6,12,13,15</t>
+  </si>
+  <si>
+    <t>7Tage</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B7444-97EA-4FA0-B6D2-5BD359EBE960}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1336,59 +1424,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="8">
+        <v>43961</v>
+      </c>
+      <c r="J16" s="8">
+        <v>43964</v>
+      </c>
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="I16" s="8">
-        <v>43935</v>
-      </c>
-      <c r="J16" s="8">
-        <v>43935</v>
-      </c>
-      <c r="K16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="7">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="I17" s="8">
         <v>43935</v>
@@ -1400,27 +1488,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
-        <v>12</v>
+    <row r="18" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B18" s="3">
+        <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="7">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>130</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I18" s="8">
         <v>43935</v>
@@ -1433,26 +1521,26 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
-        <v>13</v>
+      <c r="B19" s="6">
+        <v>12</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="7">
-        <v>4</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
+      <c r="F19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8">
         <v>43935</v>
@@ -1464,27 +1552,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B20" s="6">
-        <v>14</v>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="3">
+        <v>13</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>139</v>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8">
         <v>43935</v>
@@ -1497,26 +1585,26 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
-        <v>15</v>
+      <c r="B21" s="6">
+        <v>14</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="7">
-        <v>4</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>130</v>
+      <c r="F21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I21" s="8">
         <v>43935</v>
@@ -1528,170 +1616,170 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
+    <row r="22" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B22" s="3">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="I22" s="8">
+        <v>43935</v>
+      </c>
+      <c r="J22" s="8">
+        <v>43935</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B23" s="6">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I23" s="8">
-        <v>43936</v>
-      </c>
-      <c r="J23" s="8">
-        <v>43942</v>
-      </c>
-      <c r="K23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B24" s="6">
-        <v>18</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="I24" s="8">
         <v>43936</v>
       </c>
       <c r="J24" s="8">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="K24" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
-        <v>19</v>
+      <c r="B25" s="6">
+        <v>18</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="7">
-        <v>7</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
+      <c r="F25" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I25" s="8">
         <v>43936</v>
       </c>
       <c r="J25" s="8">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="K25" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B26" s="6">
-        <v>20</v>
+      <c r="B26" s="3">
+        <v>19</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>138</v>
+        <v>48</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="7">
+        <v>7</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8">
         <v>43936</v>
       </c>
       <c r="J26" s="8">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="K26" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
-        <v>21</v>
+      <c r="B27" s="6">
+        <v>20</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="7">
-        <v>20</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>140</v>
+      <c r="F27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>16</v>
@@ -1706,91 +1794,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="6">
-        <v>22</v>
+    <row r="28" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B28" s="3">
+        <v>21</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>146</v>
+        <v>52</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="7">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I28" s="8">
         <v>43936</v>
       </c>
       <c r="J28" s="8">
+        <v>43942</v>
+      </c>
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="6">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="8">
+        <v>43936</v>
+      </c>
+      <c r="J29" s="8">
         <v>43949</v>
       </c>
-      <c r="K28" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
+      <c r="K29" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B30" s="3">
         <v>23</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>22</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <v>24</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="I29" s="8">
-        <v>43945</v>
-      </c>
-      <c r="J29" s="8">
-        <v>43945</v>
-      </c>
-      <c r="K29" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B30" s="6">
-        <v>24</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="I30" s="8">
         <v>43945</v>
@@ -1803,73 +1891,73 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B31" s="3">
+      <c r="B31" s="6">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="8">
+        <v>43945</v>
+      </c>
+      <c r="J31" s="8">
+        <v>43945</v>
+      </c>
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B32" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B32" s="6">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B33" s="6">
         <v>26</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G33" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="8">
-        <v>43942</v>
-      </c>
-      <c r="J32" s="8">
-        <v>43953</v>
-      </c>
-      <c r="K32" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="3">
-        <v>27</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="7">
-        <v>26</v>
-      </c>
-      <c r="G33" s="7">
-        <v>32</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>8</v>
@@ -1884,94 +1972,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B34" s="6">
-        <v>28</v>
+    <row r="34" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="3">
+        <v>27</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>145</v>
+        <v>62</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="7">
+        <v>26</v>
+      </c>
+      <c r="G34" s="7">
+        <v>32</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8">
         <v>43942</v>
       </c>
       <c r="J34" s="8">
-        <v>43960</v>
+        <v>43953</v>
       </c>
       <c r="K34" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="3">
-        <v>29</v>
+    <row r="35" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B35" s="6">
+        <v>28</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="7">
-        <v>28</v>
-      </c>
-      <c r="G35" s="7">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I35" s="8">
         <v>43942</v>
       </c>
       <c r="J35" s="8">
-        <v>43953</v>
+        <v>43960</v>
       </c>
       <c r="K35" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B36" s="6">
+    <row r="36" spans="2:11" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
+        <v>29</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="7">
+        <v>28</v>
+      </c>
+      <c r="G36" s="7">
         <v>30</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="8">
-        <v>43953</v>
+        <v>43942</v>
       </c>
       <c r="J36" s="8">
         <v>43953</v>
@@ -1980,62 +2068,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B37" s="3">
+    <row r="37" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B37" s="6">
+        <v>30</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J37" s="8">
+        <v>43953</v>
+      </c>
+      <c r="K37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>13</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I38" s="8">
         <v>43942</v>
-      </c>
-      <c r="J37" s="8">
-        <v>43960</v>
-      </c>
-      <c r="K37" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B38" s="6">
-        <v>32</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="8">
-        <v>43949</v>
       </c>
       <c r="J38" s="8">
         <v>43960</v>
@@ -2045,26 +2133,26 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B39" s="3">
-        <v>33</v>
+      <c r="B39" s="6">
+        <v>32</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="7">
-        <v>32</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>130</v>
+      <c r="F39" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I39" s="8">
         <v>43949</v>
@@ -2077,58 +2165,58 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B40" s="6">
+      <c r="B40" s="3">
+        <v>33</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="7">
+        <v>32</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="8">
+        <v>43949</v>
+      </c>
+      <c r="J40" s="8">
+        <v>43960</v>
+      </c>
+      <c r="K40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B41" s="6">
         <v>34</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F41" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G41" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="I40" s="8">
-        <v>43953</v>
-      </c>
-      <c r="J40" s="8">
-        <v>43953</v>
-      </c>
-      <c r="K40" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B41" s="3">
-        <v>35</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="7">
-        <v>34</v>
-      </c>
-      <c r="G41" s="7">
-        <v>36</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="I41" s="8">
         <v>43953</v>
@@ -2140,27 +2228,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="6">
+    <row r="42" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B42" s="3">
+        <v>35</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="7">
+        <v>34</v>
+      </c>
+      <c r="G42" s="7">
         <v>36</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="H42" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I42" s="8">
         <v>43953</v>
@@ -2172,109 +2260,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B43" s="3">
-        <v>37</v>
+    <row r="43" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="6">
+        <v>36</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="7">
-        <v>32</v>
-      </c>
-      <c r="G43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I43" s="8">
         <v>43953</v>
       </c>
       <c r="J43" s="8">
+        <v>43953</v>
+      </c>
+      <c r="K43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B44" s="3">
+        <v>37</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="7">
+        <v>32</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J44" s="8">
         <v>43964</v>
       </c>
-      <c r="K43" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B44" s="6">
+      <c r="K44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B45" s="6">
         <v>38</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B45" s="3">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B46" s="3">
         <v>39</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="7">
         <v>31</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="I45" s="8">
-        <v>43953</v>
-      </c>
-      <c r="J45" s="8">
-        <v>43961</v>
-      </c>
-      <c r="K45" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B46" s="6">
-        <v>40</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="I46" s="8">
         <v>43953</v>
@@ -2286,24 +2374,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="3">
-        <v>41</v>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="6">
+        <v>40</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="7">
-        <v>32</v>
-      </c>
-      <c r="G47" s="7">
-        <v>42</v>
+      <c r="F47" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>8</v>
@@ -2318,27 +2406,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B48" s="6">
+    <row r="48" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="3">
+        <v>41</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="7">
+        <v>32</v>
+      </c>
+      <c r="G48" s="7">
         <v>42</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8">
         <v>43953</v>
@@ -2350,27 +2438,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="3">
-        <v>43</v>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="6">
+        <v>42</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F49" s="7">
-        <v>41</v>
-      </c>
-      <c r="G49" s="7">
-        <v>44</v>
+      <c r="F49" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I49" s="8">
         <v>43953</v>
@@ -2382,24 +2470,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="6">
+    <row r="50" spans="2:11" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="3">
+        <v>43</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="7">
+        <v>41</v>
+      </c>
+      <c r="G50" s="7">
         <v>44</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>38</v>
@@ -2414,30 +2502,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B51" s="3">
-        <v>45</v>
+    <row r="51" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="6">
+        <v>44</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F51" s="7">
-        <v>44</v>
-      </c>
-      <c r="G51" s="7">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I51" s="8">
-        <v>43961</v>
+        <v>43953</v>
       </c>
       <c r="J51" s="8">
         <v>43961</v>
@@ -2447,26 +2535,26 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B52" s="6">
+      <c r="B52" s="3">
+        <v>45</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="7">
+        <v>44</v>
+      </c>
+      <c r="G52" s="7">
         <v>46</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="H52" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I52" s="8">
         <v>43961</v>
@@ -2479,76 +2567,76 @@
       </c>
     </row>
     <row r="53" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B53" s="3">
+      <c r="B53" s="6">
+        <v>46</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="8">
+        <v>43961</v>
+      </c>
+      <c r="J53" s="8">
+        <v>43961</v>
+      </c>
+      <c r="K53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B54" s="3">
         <v>47</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B54" s="6">
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B55" s="6">
         <v>48</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E55" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F55" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G55" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="I54" s="8">
-        <v>43961</v>
-      </c>
-      <c r="J54" s="8">
-        <v>43964</v>
-      </c>
-      <c r="K54" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B55" s="3">
-        <v>49</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F55" s="7">
-        <v>46</v>
-      </c>
-      <c r="G55" s="7">
-        <v>50</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="I55" s="8">
         <v>43961</v>
@@ -2560,27 +2648,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="6">
+    <row r="56" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B56" s="3">
+        <v>49</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="7">
+        <v>46</v>
+      </c>
+      <c r="G56" s="7">
         <v>50</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="H56" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8">
         <v>43961</v>
@@ -2592,59 +2680,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B57" s="3">
+    <row r="57" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="6">
+        <v>50</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="8">
+        <v>43961</v>
+      </c>
+      <c r="J57" s="8">
+        <v>43964</v>
+      </c>
+      <c r="K57" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B58" s="3">
         <v>51</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F58" s="7">
         <v>50</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G58" s="7">
         <v>52</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="I57" s="8">
-        <v>43965</v>
-      </c>
-      <c r="J57" s="8">
-        <v>43965</v>
-      </c>
-      <c r="K57" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B58" s="6">
-        <v>52</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="I58" s="8">
         <v>43965</v>
@@ -2657,98 +2745,130 @@
       </c>
     </row>
     <row r="59" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B59" s="3">
+      <c r="B59" s="6">
+        <v>52</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="8">
+        <v>43965</v>
+      </c>
+      <c r="J59" s="8">
+        <v>43965</v>
+      </c>
+      <c r="K59" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B60" s="3">
         <v>53</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F60" s="7">
         <v>52</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I60" s="8">
         <v>43968</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J60" s="8">
         <v>43968</v>
       </c>
-      <c r="K59" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B60" s="6">
+      <c r="K60" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B61" s="6">
         <v>54</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E61" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F61" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G61" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I61" s="8">
         <v>43969</v>
-      </c>
-      <c r="J60" s="8">
-        <v>43970</v>
-      </c>
-      <c r="K60" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="B61" s="3">
-        <v>55</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="8">
-        <v>43970</v>
       </c>
       <c r="J61" s="8">
         <v>43970</v>
       </c>
       <c r="K61" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B62" s="3">
+        <v>55</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="8">
+        <v>43970</v>
+      </c>
+      <c r="J62" s="8">
+        <v>43970</v>
+      </c>
+      <c r="K62" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2757,4 +2877,1794 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADA157E-9680-4862-90D4-7AE07B24EE00}">
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="6" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="8">
+        <v>43927</v>
+      </c>
+      <c r="J8" s="8">
+        <v>43927</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="8">
+        <v>43930</v>
+      </c>
+      <c r="J9" s="8">
+        <v>43930</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="8">
+        <v>43930</v>
+      </c>
+      <c r="J10" s="8">
+        <v>43930</v>
+      </c>
+      <c r="K10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8">
+        <v>43930</v>
+      </c>
+      <c r="J11" s="8">
+        <v>43930</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="8">
+        <v>43930</v>
+      </c>
+      <c r="J12" s="8">
+        <v>43934</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>19</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8">
+        <v>43930</v>
+      </c>
+      <c r="J13" s="8">
+        <v>43935</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="8">
+        <v>43930</v>
+      </c>
+      <c r="J14" s="8">
+        <v>43935</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="7">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="8">
+        <v>43935</v>
+      </c>
+      <c r="J15" s="8">
+        <v>43938</v>
+      </c>
+      <c r="K15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="8">
+        <v>43935</v>
+      </c>
+      <c r="J16" s="8">
+        <v>43942</v>
+      </c>
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="8">
+        <v>43935</v>
+      </c>
+      <c r="J17" s="8">
+        <v>43935</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B18" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="8">
+        <v>43935</v>
+      </c>
+      <c r="J18" s="8">
+        <v>43935</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="8">
+        <v>43935</v>
+      </c>
+      <c r="J19" s="8">
+        <v>43935</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="8">
+        <v>43935</v>
+      </c>
+      <c r="J20" s="8">
+        <v>43935</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="8">
+        <v>43935</v>
+      </c>
+      <c r="J21" s="8">
+        <v>43935</v>
+      </c>
+      <c r="K21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8">
+        <v>43935</v>
+      </c>
+      <c r="J22" s="8">
+        <v>43935</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="3">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="7">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="8">
+        <v>43936</v>
+      </c>
+      <c r="J24" s="8">
+        <v>43942</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="8">
+        <v>43936</v>
+      </c>
+      <c r="J25" s="8">
+        <v>43941</v>
+      </c>
+      <c r="K25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="7">
+        <v>7</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="8">
+        <v>43936</v>
+      </c>
+      <c r="J26" s="8">
+        <v>43940</v>
+      </c>
+      <c r="K26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B27" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="8">
+        <v>43936</v>
+      </c>
+      <c r="J27" s="8">
+        <v>43942</v>
+      </c>
+      <c r="K27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="7">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="8">
+        <v>43936</v>
+      </c>
+      <c r="J28" s="8">
+        <v>43942</v>
+      </c>
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="8">
+        <v>43936</v>
+      </c>
+      <c r="J29" s="8">
+        <v>43949</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B30" s="3">
+        <v>23</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="7">
+        <v>22</v>
+      </c>
+      <c r="G30" s="7">
+        <v>24</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="8">
+        <v>43945</v>
+      </c>
+      <c r="J30" s="8">
+        <v>43945</v>
+      </c>
+      <c r="K30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="8">
+        <v>43945</v>
+      </c>
+      <c r="J31" s="8">
+        <v>43945</v>
+      </c>
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B33" s="3">
+        <v>26</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="8">
+        <v>43942</v>
+      </c>
+      <c r="J33" s="8">
+        <v>43953</v>
+      </c>
+      <c r="K33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="7">
+        <v>26</v>
+      </c>
+      <c r="G34" s="7">
+        <v>32</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="8">
+        <v>43942</v>
+      </c>
+      <c r="J34" s="8">
+        <v>43953</v>
+      </c>
+      <c r="K34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="8">
+        <v>43942</v>
+      </c>
+      <c r="J35" s="8">
+        <v>43960</v>
+      </c>
+      <c r="K35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
+        <v>29</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="7">
+        <v>28</v>
+      </c>
+      <c r="G36" s="7">
+        <v>30</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="8">
+        <v>43942</v>
+      </c>
+      <c r="J36" s="8">
+        <v>43953</v>
+      </c>
+      <c r="K36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J37" s="8">
+        <v>43953</v>
+      </c>
+      <c r="K37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="7">
+        <v>13</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="8">
+        <v>43942</v>
+      </c>
+      <c r="J38" s="8">
+        <v>43960</v>
+      </c>
+      <c r="K38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B39" s="3">
+        <v>32</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="8">
+        <v>43949</v>
+      </c>
+      <c r="J39" s="8">
+        <v>43960</v>
+      </c>
+      <c r="K39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="7">
+        <v>32</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="8">
+        <v>43949</v>
+      </c>
+      <c r="J40" s="8">
+        <v>43960</v>
+      </c>
+      <c r="K40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B41" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J41" s="8">
+        <v>43953</v>
+      </c>
+      <c r="K41" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B42" s="3">
+        <v>35</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="7">
+        <v>34</v>
+      </c>
+      <c r="G42" s="7">
+        <v>36</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J42" s="8">
+        <v>43953</v>
+      </c>
+      <c r="K42" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J43" s="8">
+        <v>43953</v>
+      </c>
+      <c r="K43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B44" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="7">
+        <v>32</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J44" s="8">
+        <v>43964</v>
+      </c>
+      <c r="K44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B45" s="3">
+        <v>38</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="7">
+        <v>31</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J46" s="8">
+        <v>43961</v>
+      </c>
+      <c r="K46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J47" s="8">
+        <v>43961</v>
+      </c>
+      <c r="K47" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="3">
+        <v>41</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="7">
+        <v>32</v>
+      </c>
+      <c r="G48" s="7">
+        <v>42</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J48" s="8">
+        <v>43961</v>
+      </c>
+      <c r="K48" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J49" s="8">
+        <v>43961</v>
+      </c>
+      <c r="K49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="7">
+        <v>41</v>
+      </c>
+      <c r="G50" s="7">
+        <v>44</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J50" s="8">
+        <v>43961</v>
+      </c>
+      <c r="K50" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="3">
+        <v>44</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="8">
+        <v>43953</v>
+      </c>
+      <c r="J51" s="8">
+        <v>43961</v>
+      </c>
+      <c r="K51" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B52" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="7">
+        <v>44</v>
+      </c>
+      <c r="G52" s="7">
+        <v>46</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="8">
+        <v>43961</v>
+      </c>
+      <c r="J52" s="8">
+        <v>43961</v>
+      </c>
+      <c r="K52" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="8">
+        <v>43961</v>
+      </c>
+      <c r="J53" s="8">
+        <v>43961</v>
+      </c>
+      <c r="K53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B54" s="3">
+        <v>47</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B55" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="8">
+        <v>43961</v>
+      </c>
+      <c r="J55" s="8">
+        <v>43964</v>
+      </c>
+      <c r="K55" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B56" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="7">
+        <v>46</v>
+      </c>
+      <c r="G56" s="7">
+        <v>50</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="8">
+        <v>43961</v>
+      </c>
+      <c r="J56" s="8">
+        <v>43964</v>
+      </c>
+      <c r="K56" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="3">
+        <v>50</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="8">
+        <v>43961</v>
+      </c>
+      <c r="J57" s="8">
+        <v>43964</v>
+      </c>
+      <c r="K57" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B58" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="7">
+        <v>50</v>
+      </c>
+      <c r="G58" s="7">
+        <v>52</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="8">
+        <v>43965</v>
+      </c>
+      <c r="J58" s="8">
+        <v>43965</v>
+      </c>
+      <c r="K58" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B59" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="8">
+        <v>43965</v>
+      </c>
+      <c r="J59" s="8">
+        <v>43965</v>
+      </c>
+      <c r="K59" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B60" s="3">
+        <v>53</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="7">
+        <v>52</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="8">
+        <v>43968</v>
+      </c>
+      <c r="J60" s="8">
+        <v>43968</v>
+      </c>
+      <c r="K60" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B61" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="8">
+        <v>43969</v>
+      </c>
+      <c r="J61" s="8">
+        <v>43970</v>
+      </c>
+      <c r="K61" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="B62" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="8">
+        <v>43970</v>
+      </c>
+      <c r="J62" s="8">
+        <v>43970</v>
+      </c>
+      <c r="K62" s="13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Vorgangsliste.xlsx
+++ b/Vorgangsliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F9691-10ED-48A6-B078-62CF276D0BC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552C1F85-BD56-4A50-87D3-E6E1ACFA83B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CD8BF150-BA51-4EA0-B710-0A49CE945C4A}"/>
   </bookViews>
@@ -614,7 +614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +646,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -733,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -773,6 +780,9 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2883,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADA157E-9680-4862-90D4-7AE07B24EE00}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2897,7 +2907,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4666,5 +4676,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>